--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -379,7 +380,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>55922222222</v>
+        <v>55921222222</v>
       </c>
       <c r="C3" s="1">
         <v>45413</v>
@@ -427,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>55933333333</v>
+        <v>55931333333</v>
       </c>
       <c r="C4" s="1">
         <v>45414</v>
@@ -438,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>55944444444</v>
+        <v>55941444444</v>
       </c>
       <c r="C5" s="1">
         <v>45415</v>
@@ -449,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>55955555555</v>
+        <v>55951555555</v>
       </c>
       <c r="C6" s="1">
         <v>45416</v>
@@ -460,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>55966666666</v>
+        <v>55961666666</v>
       </c>
       <c r="C7" s="1">
         <v>45417</v>
@@ -471,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>55977777777</v>
+        <v>55971777777</v>
       </c>
       <c r="C8" s="1">
         <v>45418</v>
@@ -482,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>55988888888</v>
+        <v>55981888888</v>
       </c>
       <c r="C9" s="1">
         <v>45419</v>
@@ -493,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>55999999999</v>
+        <v>55991999999</v>
       </c>
       <c r="C10" s="1">
         <v>45420</v>
